--- a/男女薪資.xlsx
+++ b/男女薪資.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liurenhao/Documents/TaipeiuniversityNote/EconmicVisual/111-1-econDV/week15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F6F123-F821-6146-B7FA-3E5AF474009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C83751-7FB0-1E4E-843C-FF80B834952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="1000" windowWidth="25380" windowHeight="15820" xr2:uid="{0C0B2A43-B094-8A4C-8CB8-CFB4B574538C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="10">
   <si>
     <t>工業</t>
   </si>
@@ -56,15 +56,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>產業</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>薪資</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://earnings.dgbas.gov.tw/view_payroll.aspx</t>
+  </si>
+  <si>
+    <t>工業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -470,29 +474,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769F9A7-BA7F-6041-9F7A-38E9385B461C}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1992</v>
       </c>
@@ -505,8 +518,17 @@
       <c r="D2" s="3">
         <v>33111</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>36366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>1993</v>
       </c>
@@ -519,8 +541,17 @@
       <c r="D3" s="3">
         <v>35445</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>39080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>1994</v>
       </c>
@@ -533,8 +564,17 @@
       <c r="D4" s="3">
         <v>37252</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>41331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1995</v>
       </c>
@@ -547,8 +587,17 @@
       <c r="D5" s="3">
         <v>38878</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>1996</v>
       </c>
@@ -561,8 +610,17 @@
       <c r="D6" s="3">
         <v>40167</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>1997</v>
       </c>
@@ -575,8 +633,17 @@
       <c r="D7" s="3">
         <v>41747</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>46261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>1998</v>
       </c>
@@ -589,8 +656,17 @@
       <c r="D8" s="3">
         <v>42827</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>47668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>1999</v>
       </c>
@@ -603,8 +679,17 @@
       <c r="D9" s="3">
         <v>44034</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>48624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>2000</v>
       </c>
@@ -617,8 +702,17 @@
       <c r="D10" s="3">
         <v>45192</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>49716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>2001</v>
       </c>
@@ -631,8 +725,17 @@
       <c r="D11" s="3">
         <v>44666</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>49852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>2002</v>
       </c>
@@ -645,8 +748,17 @@
       <c r="D12" s="3">
         <v>44159</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>48544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>2003</v>
       </c>
@@ -659,8 +771,17 @@
       <c r="D13" s="3">
         <v>45278</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>48407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>2004</v>
       </c>
@@ -673,8 +794,17 @@
       <c r="D14" s="3">
         <v>46289</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>48880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>2005</v>
       </c>
@@ -687,8 +817,17 @@
       <c r="D15" s="3">
         <v>47256</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>48505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>2006</v>
       </c>
@@ -701,8 +840,17 @@
       <c r="D16" s="3">
         <v>47819</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>48246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>2007</v>
       </c>
@@ -715,8 +863,17 @@
       <c r="D17" s="3">
         <v>48742</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>49075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>2008</v>
       </c>
@@ -729,8 +886,17 @@
       <c r="D18" s="3">
         <v>48647</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>49524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>2009</v>
       </c>
@@ -743,8 +909,17 @@
       <c r="D19" s="3">
         <v>45198</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>47804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>2010</v>
       </c>
@@ -757,8 +932,17 @@
       <c r="D20" s="3">
         <v>48515</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>49456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>2011</v>
       </c>
@@ -771,8 +955,17 @@
       <c r="D21" s="3">
         <v>50114</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>50879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>2012</v>
       </c>
@@ -785,8 +978,17 @@
       <c r="D22" s="3">
         <v>50394</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>2013</v>
       </c>
@@ -799,8 +1001,17 @@
       <c r="D23" s="3">
         <v>50413</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>50562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>2014</v>
       </c>
@@ -813,8 +1024,17 @@
       <c r="D24" s="3">
         <v>51986</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>52195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>2015</v>
       </c>
@@ -827,8 +1047,17 @@
       <c r="D25" s="3">
         <v>53640</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>52973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>2016</v>
       </c>
@@ -841,8 +1070,17 @@
       <c r="D26" s="3">
         <v>53767</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>53109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>2017</v>
       </c>
@@ -855,8 +1093,17 @@
       <c r="D27" s="3">
         <v>55047</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>54354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>2018</v>
       </c>
@@ -869,8 +1116,17 @@
       <c r="D28" s="3">
         <v>57326</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>56468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>2019</v>
       </c>
@@ -883,8 +1139,17 @@
       <c r="D29" s="3">
         <v>58245</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>58107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
@@ -897,8 +1162,17 @@
       <c r="D30" s="3">
         <v>58470</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>59361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
@@ -911,8 +1185,17 @@
       <c r="D31" s="3">
         <v>62241</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>60060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>1992</v>
       </c>
@@ -925,8 +1208,17 @@
       <c r="D32" s="3">
         <v>19891</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>25971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>1993</v>
       </c>
@@ -939,8 +1231,17 @@
       <c r="D33" s="3">
         <v>21351</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>27915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>1994</v>
       </c>
@@ -953,8 +1254,17 @@
       <c r="D34" s="3">
         <v>22846</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>29863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>1995</v>
       </c>
@@ -967,8 +1277,17 @@
       <c r="D35" s="3">
         <v>24269</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3">
+        <v>31690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>1996</v>
       </c>
@@ -981,8 +1300,17 @@
       <c r="D36" s="3">
         <v>25389</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3">
+        <v>33028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>1997</v>
       </c>
@@ -995,8 +1323,17 @@
       <c r="D37" s="3">
         <v>26643</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>35112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>1998</v>
       </c>
@@ -1009,8 +1346,17 @@
       <c r="D38" s="3">
         <v>27653</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>36338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>1999</v>
       </c>
@@ -1023,8 +1369,17 @@
       <c r="D39" s="3">
         <v>28869</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>37750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>2000</v>
       </c>
@@ -1037,8 +1392,17 @@
       <c r="D40" s="3">
         <v>30034</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>38684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>2001</v>
       </c>
@@ -1051,8 +1415,17 @@
       <c r="D41" s="3">
         <v>29642</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3">
+        <v>39906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>2002</v>
       </c>
@@ -1065,8 +1438,17 @@
       <c r="D42" s="3">
         <v>30082</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>39892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>2003</v>
       </c>
@@ -1079,8 +1461,17 @@
       <c r="D43" s="3">
         <v>30936</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>40139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>2004</v>
       </c>
@@ -1093,8 +1484,17 @@
       <c r="D44" s="3">
         <v>31936</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
+        <v>40185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>2005</v>
       </c>
@@ -1107,8 +1507,17 @@
       <c r="D45" s="3">
         <v>33085</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
+        <v>40349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>2006</v>
       </c>
@@ -1121,8 +1530,17 @@
       <c r="D46" s="3">
         <v>33753</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
+        <v>40757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>2007</v>
       </c>
@@ -1135,8 +1553,17 @@
       <c r="D47" s="3">
         <v>34445</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>41884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>2008</v>
       </c>
@@ -1149,8 +1576,17 @@
       <c r="D48" s="3">
         <v>34538</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>2009</v>
       </c>
@@ -1163,8 +1599,17 @@
       <c r="D49" s="3">
         <v>31856</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
+        <v>40345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>2010</v>
       </c>
@@ -1177,8 +1622,17 @@
       <c r="D50" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>42148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>2011</v>
       </c>
@@ -1191,8 +1645,17 @@
       <c r="D51" s="3">
         <v>35755</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>2012</v>
       </c>
@@ -1205,8 +1668,17 @@
       <c r="D52" s="3">
         <v>36575</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>43361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>2013</v>
       </c>
@@ -1219,8 +1691,17 @@
       <c r="D53" s="3">
         <v>36845</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>2014</v>
       </c>
@@ -1233,8 +1714,17 @@
       <c r="D54" s="3">
         <v>38146</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>2015</v>
       </c>
@@ -1247,8 +1737,17 @@
       <c r="D55" s="3">
         <v>39338</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="3">
+        <v>46567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>2016</v>
       </c>
@@ -1261,8 +1760,17 @@
       <c r="D56" s="3">
         <v>39880</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>46832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>2017</v>
       </c>
@@ -1275,8 +1783,17 @@
       <c r="D57" s="3">
         <v>41114</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>47964</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>2018</v>
       </c>
@@ -1289,8 +1806,17 @@
       <c r="D58" s="3">
         <v>42903</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>49493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>2019</v>
       </c>
@@ -1303,8 +1829,17 @@
       <c r="D59" s="3">
         <v>43681</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
+        <v>50358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>2020</v>
       </c>
@@ -1317,8 +1852,17 @@
       <c r="D60" s="3">
         <v>43997</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
+        <v>51144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>2021</v>
       </c>
@@ -1331,844 +1875,13 @@
       <c r="D61" s="3">
         <v>46198</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3">
-        <v>36366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="3">
-        <v>39080</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="3">
-        <v>41331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3">
-        <v>42806</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="3">
-        <v>46261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="3">
-        <v>47668</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="3">
-        <v>48624</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3">
-        <v>49716</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3">
-        <v>49852</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>48544</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>48407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="3">
-        <v>48880</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3">
-        <v>48505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="3">
-        <v>48246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3">
-        <v>49075</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="3">
-        <v>49524</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3">
-        <v>47804</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="3">
-        <v>49456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="3">
-        <v>50879</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="3">
-        <v>50551</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="3">
-        <v>50562</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="3">
-        <v>52195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="3">
-        <v>52973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="3">
-        <v>53109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="3">
-        <v>54354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="3">
-        <v>56468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3">
-        <v>58107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="3">
-        <v>59361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="3">
-        <v>60060</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="3">
-        <v>25971</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="3">
-        <v>27915</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="3">
-        <v>29863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="3">
-        <v>31690</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="3">
-        <v>33028</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="3">
-        <v>35112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="3">
-        <v>36338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="3">
-        <v>37750</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="3">
-        <v>38684</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="3">
-        <v>39906</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="3">
-        <v>39892</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="3">
-        <v>40139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="3">
-        <v>40185</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="3">
-        <v>40349</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="3">
-        <v>40757</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="3">
-        <v>41884</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="3">
-        <v>41471</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="3">
-        <v>40345</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="3">
-        <v>42148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="3">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="3">
-        <v>43361</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="3">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="3">
-        <v>45410</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="3">
-        <v>46567</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="3">
-        <v>46832</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="3">
-        <v>47964</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="3">
-        <v>49493</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="3">
-        <v>50358</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="3">
-        <v>51144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="3">
+      <c r="E61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="3">
         <v>51576</v>
       </c>
     </row>
@@ -2190,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/男女薪資.xlsx
+++ b/男女薪資.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liurenhao/Documents/TaipeiuniversityNote/EconmicVisual/111-1-econDV/week15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C83751-7FB0-1E4E-843C-FF80B834952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700F5F96-8A44-9A4F-9F15-2B597DB0E379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="1000" windowWidth="25380" windowHeight="15820" xr2:uid="{0C0B2A43-B094-8A4C-8CB8-CFB4B574538C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="11">
   <si>
     <t>工業</t>
   </si>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>薪資</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://earnings.dgbas.gov.tw/view_payroll.aspx</t>
   </si>
   <si>
@@ -68,6 +64,14 @@
   </si>
   <si>
     <t>服務業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工業薪資</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務業薪資</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,38 +478,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769F9A7-BA7F-6041-9F7A-38E9385B461C}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1992</v>
       </c>
@@ -521,14 +522,11 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="3">
         <v>36366</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>1993</v>
       </c>
@@ -544,14 +542,11 @@
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="3">
         <v>39080</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>1994</v>
       </c>
@@ -567,14 +562,11 @@
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="3">
         <v>41331</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1995</v>
       </c>
@@ -590,14 +582,11 @@
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="3">
         <v>42806</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>1996</v>
       </c>
@@ -613,14 +602,11 @@
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="3">
         <v>44130</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>1997</v>
       </c>
@@ -636,14 +622,11 @@
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="3">
         <v>46261</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>1998</v>
       </c>
@@ -659,14 +642,11 @@
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="3">
         <v>47668</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>1999</v>
       </c>
@@ -682,14 +662,11 @@
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="3">
         <v>48624</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>2000</v>
       </c>
@@ -705,14 +682,11 @@
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="3">
         <v>49716</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>2001</v>
       </c>
@@ -728,14 +702,11 @@
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="3">
         <v>49852</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>2002</v>
       </c>
@@ -751,14 +722,11 @@
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3">
         <v>48544</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>2003</v>
       </c>
@@ -774,14 +742,11 @@
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="3">
         <v>48407</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>2004</v>
       </c>
@@ -797,14 +762,11 @@
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
         <v>48880</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>2005</v>
       </c>
@@ -820,14 +782,11 @@
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
         <v>48505</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>2006</v>
       </c>
@@ -843,14 +802,11 @@
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="3">
         <v>48246</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>2007</v>
       </c>
@@ -866,14 +822,11 @@
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="3">
         <v>49075</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>2008</v>
       </c>
@@ -889,14 +842,11 @@
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="3">
         <v>49524</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>2009</v>
       </c>
@@ -912,14 +862,11 @@
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="3">
         <v>47804</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>2010</v>
       </c>
@@ -935,14 +882,11 @@
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3">
         <v>49456</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>2011</v>
       </c>
@@ -958,14 +902,11 @@
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="3">
         <v>50879</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>2012</v>
       </c>
@@ -981,14 +922,11 @@
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
         <v>50551</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>2013</v>
       </c>
@@ -1004,14 +942,11 @@
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="3">
         <v>50562</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>2014</v>
       </c>
@@ -1027,14 +962,11 @@
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="3">
         <v>52195</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>2015</v>
       </c>
@@ -1050,14 +982,11 @@
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="3">
         <v>52973</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>2016</v>
       </c>
@@ -1073,14 +1002,11 @@
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="3">
         <v>53109</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>2017</v>
       </c>
@@ -1096,14 +1022,11 @@
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="3">
         <v>54354</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>2018</v>
       </c>
@@ -1119,14 +1042,11 @@
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="3">
         <v>56468</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>2019</v>
       </c>
@@ -1142,14 +1062,11 @@
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="3">
         <v>58107</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
@@ -1165,14 +1082,11 @@
       <c r="E30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="3">
         <v>59361</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
@@ -1188,14 +1102,11 @@
       <c r="E31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="3">
         <v>60060</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>1992</v>
       </c>
@@ -1211,14 +1122,11 @@
       <c r="E32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="3">
         <v>25971</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>1993</v>
       </c>
@@ -1234,14 +1142,11 @@
       <c r="E33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="3">
         <v>27915</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>1994</v>
       </c>
@@ -1257,14 +1162,11 @@
       <c r="E34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="3">
         <v>29863</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>1995</v>
       </c>
@@ -1280,14 +1182,11 @@
       <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="3">
         <v>31690</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>1996</v>
       </c>
@@ -1303,14 +1202,11 @@
       <c r="E36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="3">
         <v>33028</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>1997</v>
       </c>
@@ -1326,14 +1222,11 @@
       <c r="E37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="3">
         <v>35112</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>1998</v>
       </c>
@@ -1349,14 +1242,11 @@
       <c r="E38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="3">
         <v>36338</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>1999</v>
       </c>
@@ -1372,14 +1262,11 @@
       <c r="E39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="F39" s="3">
         <v>37750</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>2000</v>
       </c>
@@ -1395,14 +1282,11 @@
       <c r="E40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="F40" s="3">
         <v>38684</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>2001</v>
       </c>
@@ -1418,14 +1302,11 @@
       <c r="E41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F41" s="3">
         <v>39906</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>2002</v>
       </c>
@@ -1441,14 +1322,11 @@
       <c r="E42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F42" s="3">
         <v>39892</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>2003</v>
       </c>
@@ -1464,14 +1342,11 @@
       <c r="E43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F43" s="3">
         <v>40139</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>2004</v>
       </c>
@@ -1487,14 +1362,11 @@
       <c r="E44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="F44" s="3">
         <v>40185</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>2005</v>
       </c>
@@ -1510,14 +1382,11 @@
       <c r="E45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F45" s="3">
         <v>40349</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>2006</v>
       </c>
@@ -1533,14 +1402,11 @@
       <c r="E46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="F46" s="3">
         <v>40757</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>2007</v>
       </c>
@@ -1556,14 +1422,11 @@
       <c r="E47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="F47" s="3">
         <v>41884</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>2008</v>
       </c>
@@ -1579,14 +1442,11 @@
       <c r="E48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="F48" s="3">
         <v>41471</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>2009</v>
       </c>
@@ -1602,14 +1462,11 @@
       <c r="E49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="F49" s="3">
         <v>40345</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>2010</v>
       </c>
@@ -1625,14 +1482,11 @@
       <c r="E50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="F50" s="3">
         <v>42148</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>2011</v>
       </c>
@@ -1648,14 +1502,11 @@
       <c r="E51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="F51" s="3">
         <v>43305</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>2012</v>
       </c>
@@ -1671,14 +1522,11 @@
       <c r="E52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="F52" s="3">
         <v>43361</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>2013</v>
       </c>
@@ -1694,14 +1542,11 @@
       <c r="E53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="F53" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>2014</v>
       </c>
@@ -1717,14 +1562,11 @@
       <c r="E54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="F54" s="3">
         <v>45410</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>2015</v>
       </c>
@@ -1740,14 +1582,11 @@
       <c r="E55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="F55" s="3">
         <v>46567</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>2016</v>
       </c>
@@ -1763,14 +1602,11 @@
       <c r="E56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="F56" s="3">
         <v>46832</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>2017</v>
       </c>
@@ -1786,14 +1622,11 @@
       <c r="E57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="F57" s="3">
         <v>47964</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>2018</v>
       </c>
@@ -1809,14 +1642,11 @@
       <c r="E58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="3">
         <v>49493</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>2019</v>
       </c>
@@ -1832,14 +1662,11 @@
       <c r="E59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="3">
         <v>50358</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>2020</v>
       </c>
@@ -1855,14 +1682,11 @@
       <c r="E60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="F60" s="3">
         <v>51144</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>2021</v>
       </c>
@@ -1878,10 +1702,7 @@
       <c r="E61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="F61" s="3">
         <v>51576</v>
       </c>
     </row>
@@ -1903,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
